--- a/media/file_form_template/工程確認單樣板.xlsx
+++ b/media/file_form_template/工程確認單樣板.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd19\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauou\OneDrive\桌面\艾力克電機\ERP\media\file_form_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492B22E-2060-470E-AFA1-D85B16C0B3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79ABD589-57AC-49C4-87F8-09C394C94EE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,28 +41,29 @@
     <t>母案編號</t>
   </si>
   <si>
+    <t>工程名稱</t>
+  </si>
+  <si>
+    <t>客戶簡稱</t>
+  </si>
+  <si>
+    <t>請購單位</t>
+  </si>
+  <si>
+    <t>訂單編號</t>
+  </si>
+  <si>
+    <t>成交金額</t>
+  </si>
+  <si>
     <t>工確單編號</t>
-  </si>
-  <si>
-    <t>工程名稱</t>
-  </si>
-  <si>
-    <t>客戶簡稱</t>
-  </si>
-  <si>
-    <t>請購單位</t>
-  </si>
-  <si>
-    <t>訂單編號</t>
-  </si>
-  <si>
-    <t>成交金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -430,43 +430,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B6E64-4FF0-49B9-83C5-AF728EDE9AFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/media/file_form_template/工程確認單樣板.xlsx
+++ b/media/file_form_template/工程確認單樣板.xlsx
@@ -33,21 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>報價單號</t>
   </si>
   <si>
     <t>母案編號</t>
-  </si>
-  <si>
-    <t>工程名稱</t>
-  </si>
-  <si>
-    <t>客戶簡稱</t>
-  </si>
-  <si>
-    <t>請購單位</t>
   </si>
   <si>
     <t>訂單編號</t>
@@ -56,7 +47,7 @@
     <t>成交金額</t>
   </si>
   <si>
-    <t>工確單編號</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,46 +422,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
